--- a/data/PVAL04 comparisons.xlsx
+++ b/data/PVAL04 comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Quality Management System\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Analyst</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>SRM</t>
-  </si>
-  <si>
-    <t>PVAL08 analysis</t>
   </si>
   <si>
     <t>&lt;0.2</t>
@@ -76,6 +73,54 @@
   </si>
   <si>
     <t>Fish Oil</t>
+  </si>
+  <si>
+    <t>SRM21K</t>
+  </si>
+  <si>
+    <t>Canola Oil</t>
+  </si>
+  <si>
+    <t>Fish oil</t>
+  </si>
+  <si>
+    <t>fish oil</t>
+  </si>
+  <si>
+    <t>Dairy blend salted butter</t>
+  </si>
+  <si>
+    <t>fats and oil</t>
+  </si>
+  <si>
+    <t>PVAL04 analysis</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Milk Fat Blend</t>
+  </si>
+  <si>
+    <t>Dairy Blend - reduced Salt</t>
+  </si>
+  <si>
+    <t>Dairy Blend - Salted</t>
+  </si>
+  <si>
+    <t>Extra Soft - reduced Salt</t>
+  </si>
+  <si>
+    <t>Extra soft - regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devondale Light </t>
+  </si>
+  <si>
+    <t>Emu Oil</t>
+  </si>
+  <si>
+    <t>Tallow</t>
   </si>
 </sst>
 </file>
@@ -401,30 +446,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -441,9 +487,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -457,16 +503,20 @@
       <c r="E4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>9139773</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -474,16 +524,20 @@
       <c r="E5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F32" si="0">D5-E5</f>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>9139773</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -491,50 +545,60 @@
       <c r="E6">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>9193762</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>9193762</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>9197289</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1.1000000000000001</v>
@@ -542,16 +606,20 @@
       <c r="E9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9201201</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>4.5</v>
@@ -559,9 +627,474 @@
       <c r="E10">
         <v>4.5999999999999996</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1.8</v>
+      </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9544210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1.3</v>
+      </c>
+      <c r="E12">
+        <v>1.3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>9539261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9547316</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>6.7</v>
+      </c>
+      <c r="E14">
+        <v>6.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>9550550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1.6</v>
+      </c>
+      <c r="E16">
+        <v>1.6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>9556046</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>9564425</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+      <c r="E18">
+        <v>1.4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>1.6</v>
+      </c>
+      <c r="E19">
+        <v>1.6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>9564525</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>9565582</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>9565585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>9565596</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>1.2</v>
+      </c>
+      <c r="E23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>9565600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>1.2</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>9565605</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>6.2</v>
+      </c>
+      <c r="E25">
+        <v>6.4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>9563331</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>1.6</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>9569285</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E28">
+        <v>3.2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>9569286</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>1.7</v>
+      </c>
+      <c r="E29">
+        <v>1.6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>9569306</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>2.4</v>
+      </c>
+      <c r="E30">
+        <v>2.6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>9569510</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>3.1</v>
+      </c>
+      <c r="E31">
+        <v>3.1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>9569532</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E32">
+        <v>4.2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000053</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>